--- a/ig/StructureDefinition-ror-organization.xlsx
+++ b/ig/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:25:23+00:00</t>
+    <t>2023-02-16T13:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization.xlsx
+++ b/ig/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:20:54+00:00</t>
+    <t>2023-02-23T08:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization.xlsx
+++ b/ig/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization.xlsx
+++ b/ig/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7827" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7857" uniqueCount="841">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -760,7 +760,7 @@
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour représenter le code officiel géographique (COG) de la commune dans laquelle le lieu est situé.</t>
   </si>
   <si>
     <t>Organization.extension:ror-organization-drop-zone</t>
@@ -1959,10 +1959,26 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
+    <t>http://interopsante.org/fhir/ValueSet/fr-insee-code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:inseeCode.value[x]:valueCoding</t>
+  </si>
+  <si>
+    <t>valueCoding</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J230-CommuneOM-ROR/FHIR/JDV-J230-CommuneOM-ROR</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Organization.address.extension:ror-address-name</t>
@@ -1975,6 +1991,9 @@
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR pour décrire le nom du lieu sous la forme de texte</t>
+  </si>
+  <si>
     <t>Organization.address.extension:ror-address-description</t>
   </si>
   <si>
@@ -1985,6 +2004,9 @@
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR pour transmettre une description textuelle du lieu, indiquant comment l'atteindre.</t>
+  </si>
+  <si>
     <t>Organization.address.extension:ror-address-status</t>
   </si>
   <si>
@@ -1995,6 +2017,9 @@
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR pour indiquer si le lieu est opérationnel, fermé temporairement ou fermé définitivement.</t>
+  </si>
+  <si>
     <t>Organization.address.extension:ror-calculated-distance</t>
   </si>
   <si>
@@ -2005,6 +2030,9 @@
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR</t>
+  </si>
+  <si>
     <t>Organization.address.extension:ror-geolocation</t>
   </si>
   <si>
@@ -2208,13 +2236,6 @@
   </si>
   <si>
     <t>Organization.address.line.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Organization.address.line.extension:streetNameType.value[x]:valueString</t>
@@ -2950,7 +2971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ242"/>
+  <dimension ref="A1:AJ243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3219,7 +3240,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
@@ -4136,7 +4157,7 @@
         <v>71</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>70</v>
@@ -6488,7 +6509,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>70</v>
@@ -21525,19 +21546,17 @@
         <v>70</v>
       </c>
       <c r="AB181" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="AC181" s="2"/>
       <c r="AD181" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>70</v>
+        <v>615</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>71</v>
@@ -21554,13 +21573,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>70</v>
@@ -21582,13 +21601,13 @@
         <v>70</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>617</v>
+        <v>131</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>181</v>
+        <v>611</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>237</v>
+        <v>612</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21615,13 +21634,11 @@
         <v>70</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y182" s="2"/>
       <c r="Z182" t="s" s="2">
-        <v>70</v>
+        <v>619</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>70</v>
@@ -21639,30 +21656,30 @@
         <v>70</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>105</v>
+        <v>616</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH182" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI182" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>594</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>70</v>
@@ -21684,13 +21701,13 @@
         <v>70</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L183" t="s" s="2">
         <v>181</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>237</v>
+        <v>623</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -21758,13 +21775,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>594</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D184" t="s" s="2">
         <v>70</v>
@@ -21786,13 +21803,13 @@
         <v>70</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="L184" t="s" s="2">
         <v>181</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>237</v>
+        <v>627</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -21860,13 +21877,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>594</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>70</v>
@@ -21888,13 +21905,13 @@
         <v>70</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="L185" t="s" s="2">
         <v>181</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>237</v>
+        <v>631</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -21962,13 +21979,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>594</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>70</v>
@@ -21990,13 +22007,13 @@
         <v>70</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="L186" t="s" s="2">
         <v>181</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>182</v>
+        <v>635</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -22064,12 +22081,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="C187" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="D187" t="s" s="2">
         <v>70</v>
       </c>
@@ -22084,26 +22103,22 @@
         <v>70</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>158</v>
+        <v>638</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>631</v>
+        <v>181</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
       <c r="P187" t="s" s="2">
         <v>70</v>
       </c>
@@ -22115,7 +22130,7 @@
         <v>70</v>
       </c>
       <c r="T187" t="s" s="2">
-        <v>635</v>
+        <v>70</v>
       </c>
       <c r="U187" t="s" s="2">
         <v>70</v>
@@ -22127,13 +22142,13 @@
         <v>70</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>636</v>
+        <v>70</v>
       </c>
       <c r="Z187" t="s" s="2">
-        <v>637</v>
+        <v>70</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>70</v>
@@ -22151,19 +22166,19 @@
         <v>70</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>638</v>
+        <v>105</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI187" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="188">
@@ -22188,7 +22203,7 @@
         <v>70</v>
       </c>
       <c r="I188" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J188" t="s" s="2">
         <v>78</v>
@@ -22205,7 +22220,9 @@
       <c r="N188" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="O188" s="2"/>
+      <c r="O188" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="P188" t="s" s="2">
         <v>70</v>
       </c>
@@ -22217,7 +22234,7 @@
         <v>70</v>
       </c>
       <c r="T188" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="U188" t="s" s="2">
         <v>70</v>
@@ -22232,10 +22249,10 @@
         <v>150</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>70</v>
@@ -22253,7 +22270,7 @@
         <v>70</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>71</v>
@@ -22270,10 +22287,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22296,20 +22313,18 @@
         <v>78</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O189" t="s" s="2">
         <v>651</v>
       </c>
+      <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
         <v>70</v>
       </c>
@@ -22333,13 +22348,13 @@
         <v>70</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>70</v>
+        <v>653</v>
       </c>
       <c r="Z189" t="s" s="2">
-        <v>70</v>
+        <v>654</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>70</v>
@@ -22357,7 +22372,7 @@
         <v>70</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>71</v>
@@ -22374,10 +22389,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22388,7 +22403,7 @@
         <v>71</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H190" t="s" s="2">
         <v>70</v>
@@ -22403,15 +22418,17 @@
         <v>92</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O190" s="2"/>
+        <v>659</v>
+      </c>
+      <c r="O190" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="P190" t="s" s="2">
         <v>70</v>
       </c>
@@ -22423,7 +22440,7 @@
         <v>70</v>
       </c>
       <c r="T190" t="s" s="2">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="U190" t="s" s="2">
         <v>70</v>
@@ -22459,13 +22476,13 @@
         <v>70</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH190" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI190" t="s" s="2">
         <v>89</v>
@@ -22476,10 +22493,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22490,7 +22507,7 @@
         <v>71</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H191" t="s" s="2">
         <v>70</v>
@@ -22499,18 +22516,20 @@
         <v>70</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K191" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>93</v>
+        <v>664</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N191" s="2"/>
+        <v>665</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
         <v>70</v>
@@ -22523,7 +22542,7 @@
         <v>70</v>
       </c>
       <c r="T191" t="s" s="2">
-        <v>70</v>
+        <v>666</v>
       </c>
       <c r="U191" t="s" s="2">
         <v>70</v>
@@ -22559,38 +22578,38 @@
         <v>70</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>95</v>
+        <v>667</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH191" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H192" t="s" s="2">
         <v>70</v>
@@ -22602,17 +22621,15 @@
         <v>70</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
         <v>70</v>
@@ -22649,45 +22666,43 @@
         <v>70</v>
       </c>
       <c r="AB192" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC192" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD192" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH192" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="C193" t="s" s="2">
-        <v>662</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
@@ -22706,15 +22721,17 @@
         <v>70</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>663</v>
+        <v>98</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N193" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
         <v>70</v>
@@ -22751,16 +22768,16 @@
         <v>70</v>
       </c>
       <c r="AB193" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC193" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD193" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>105</v>
@@ -22780,13 +22797,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="D194" t="s" s="2">
         <v>70</v>
@@ -22808,13 +22825,13 @@
         <v>70</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>665</v>
+        <v>181</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -22882,13 +22899,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D195" t="s" s="2">
         <v>70</v>
@@ -22910,13 +22927,13 @@
         <v>70</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -22984,13 +23001,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>70</v>
@@ -23012,13 +23029,13 @@
         <v>70</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -23086,13 +23103,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>70</v>
@@ -23114,13 +23131,13 @@
         <v>70</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -23188,13 +23205,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>70</v>
@@ -23216,13 +23233,13 @@
         <v>70</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -23290,12 +23307,14 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="C199" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="C199" t="s" s="2">
+        <v>690</v>
+      </c>
       <c r="D199" t="s" s="2">
         <v>70</v>
       </c>
@@ -23304,7 +23323,7 @@
         <v>71</v>
       </c>
       <c r="G199" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H199" t="s" s="2">
         <v>70</v>
@@ -23316,13 +23335,13 @@
         <v>70</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>92</v>
+        <v>691</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>93</v>
+        <v>690</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>94</v>
+        <v>692</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -23373,38 +23392,38 @@
         <v>70</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH199" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G200" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H200" t="s" s="2">
         <v>70</v>
@@ -23416,17 +23435,15 @@
         <v>70</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
         <v>70</v>
@@ -23463,50 +23480,50 @@
         <v>70</v>
       </c>
       <c r="AB200" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC200" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD200" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH200" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G201" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H201" t="s" s="2">
         <v>70</v>
@@ -23518,16 +23535,16 @@
         <v>70</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>604</v>
+        <v>99</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>605</v>
+        <v>100</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>606</v>
+        <v>101</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -23535,7 +23552,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>690</v>
+        <v>70</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>70</v>
@@ -23565,39 +23582,39 @@
         <v>70</v>
       </c>
       <c r="AB201" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC201" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD201" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>608</v>
+        <v>105</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23605,7 +23622,7 @@
       </c>
       <c r="E202" s="2"/>
       <c r="F202" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G202" t="s" s="2">
         <v>77</v>
@@ -23620,22 +23637,24 @@
         <v>70</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N202" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q202" s="2"/>
       <c r="R202" t="s" s="2">
-        <v>70</v>
+        <v>699</v>
       </c>
       <c r="S202" t="s" s="2">
         <v>70</v>
@@ -23665,47 +23684,47 @@
         <v>70</v>
       </c>
       <c r="AB202" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="AC202" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AD202" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>694</v>
+        <v>70</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="C203" t="s" s="2">
-        <v>696</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G203" t="s" s="2">
         <v>77</v>
@@ -23753,29 +23772,29 @@
         <v>70</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y203" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z203" t="s" s="2">
-        <v>697</v>
+        <v>70</v>
       </c>
       <c r="AA203" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB203" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="AC203" s="2"/>
       <c r="AD203" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>70</v>
+        <v>615</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>71</v>
@@ -23792,23 +23811,23 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>660</v>
+        <v>701</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H204" t="s" s="2">
         <v>70</v>
@@ -23820,13 +23839,13 @@
         <v>70</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>700</v>
+        <v>92</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>699</v>
+        <v>611</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -23853,13 +23872,11 @@
         <v>70</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y204" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y204" s="2"/>
       <c r="Z204" t="s" s="2">
-        <v>70</v>
+        <v>704</v>
       </c>
       <c r="AA204" t="s" s="2">
         <v>70</v>
@@ -23877,30 +23894,30 @@
         <v>70</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>105</v>
+        <v>616</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>70</v>
@@ -23922,13 +23939,13 @@
         <v>70</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -23996,12 +24013,14 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="C206" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>710</v>
+      </c>
       <c r="D206" t="s" s="2">
         <v>70</v>
       </c>
@@ -24010,7 +24029,7 @@
         <v>71</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>70</v>
@@ -24022,13 +24041,13 @@
         <v>70</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>92</v>
+        <v>711</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -24052,7 +24071,7 @@
         <v>70</v>
       </c>
       <c r="W206" t="s" s="2">
-        <v>709</v>
+        <v>70</v>
       </c>
       <c r="X206" t="s" s="2">
         <v>70</v>
@@ -24079,31 +24098,31 @@
         <v>70</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>710</v>
+        <v>105</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>712</v>
+        <v>70</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
@@ -24119,20 +24138,18 @@
         <v>70</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K207" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="N207" s="2"/>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
         <v>70</v>
@@ -24145,7 +24162,7 @@
         <v>70</v>
       </c>
       <c r="T207" t="s" s="2">
-        <v>715</v>
+        <v>70</v>
       </c>
       <c r="U207" t="s" s="2">
         <v>70</v>
@@ -24154,7 +24171,7 @@
         <v>70</v>
       </c>
       <c r="W207" t="s" s="2">
-        <v>70</v>
+        <v>716</v>
       </c>
       <c r="X207" t="s" s="2">
         <v>70</v>
@@ -24181,7 +24198,7 @@
         <v>70</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>71</v>
@@ -24190,22 +24207,22 @@
         <v>77</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
@@ -24227,13 +24244,13 @@
         <v>92</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>721</v>
+        <v>441</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -24335,7 +24352,7 @@
         <v>727</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>441</v>
+        <v>728</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -24349,7 +24366,7 @@
         <v>70</v>
       </c>
       <c r="T209" t="s" s="2">
-        <v>70</v>
+        <v>729</v>
       </c>
       <c r="U209" t="s" s="2">
         <v>70</v>
@@ -24385,7 +24402,7 @@
         <v>70</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>71</v>
@@ -24402,14 +24419,14 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
@@ -24431,10 +24448,10 @@
         <v>92</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="N210" t="s" s="2">
         <v>441</v>
@@ -24451,7 +24468,7 @@
         <v>70</v>
       </c>
       <c r="T210" t="s" s="2">
-        <v>733</v>
+        <v>70</v>
       </c>
       <c r="U210" t="s" s="2">
         <v>70</v>
@@ -24487,7 +24504,7 @@
         <v>70</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>71</v>
@@ -24504,14 +24521,14 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
-        <v>70</v>
+        <v>737</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" t="s" s="2">
@@ -24533,13 +24550,13 @@
         <v>92</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>738</v>
+        <v>441</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -24553,7 +24570,7 @@
         <v>70</v>
       </c>
       <c r="T211" t="s" s="2">
-        <v>70</v>
+        <v>740</v>
       </c>
       <c r="U211" t="s" s="2">
         <v>70</v>
@@ -24589,7 +24606,7 @@
         <v>70</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>71</v>
@@ -24606,10 +24623,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24632,20 +24649,18 @@
         <v>78</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>287</v>
+        <v>92</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>743</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>70</v>
       </c>
@@ -24657,7 +24672,7 @@
         <v>70</v>
       </c>
       <c r="T212" t="s" s="2">
-        <v>744</v>
+        <v>70</v>
       </c>
       <c r="U212" t="s" s="2">
         <v>70</v>
@@ -24693,7 +24708,7 @@
         <v>70</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>71</v>
@@ -24705,15 +24720,15 @@
         <v>89</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>292</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -24736,7 +24751,7 @@
         <v>78</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>747</v>
+        <v>287</v>
       </c>
       <c r="L213" t="s" s="2">
         <v>748</v>
@@ -24745,10 +24760,10 @@
         <v>749</v>
       </c>
       <c r="N213" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O213" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>70</v>
@@ -24761,7 +24776,7 @@
         <v>70</v>
       </c>
       <c r="T213" t="s" s="2">
-        <v>70</v>
+        <v>751</v>
       </c>
       <c r="U213" t="s" s="2">
         <v>70</v>
@@ -24797,7 +24812,7 @@
         <v>70</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>71</v>
@@ -24809,15 +24824,15 @@
         <v>89</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24837,19 +24852,23 @@
         <v>70</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>92</v>
+        <v>754</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>93</v>
+        <v>755</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
+        <v>756</v>
+      </c>
+      <c r="N214" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>758</v>
+      </c>
       <c r="P214" t="s" s="2">
         <v>70</v>
       </c>
@@ -24897,7 +24916,7 @@
         <v>70</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>95</v>
+        <v>753</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>71</v>
@@ -24906,29 +24925,29 @@
         <v>77</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>70</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>70</v>
@@ -24940,17 +24959,15 @@
         <v>70</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N215" s="2"/>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
         <v>70</v>
@@ -24987,50 +25004,50 @@
         <v>70</v>
       </c>
       <c r="AB215" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC215" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD215" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H216" t="s" s="2">
         <v>70</v>
@@ -25039,19 +25056,19 @@
         <v>70</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>755</v>
+        <v>99</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>756</v>
+        <v>100</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>757</v>
+        <v>101</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
@@ -25089,39 +25106,39 @@
         <v>70</v>
       </c>
       <c r="AB216" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC216" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD216" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>758</v>
+        <v>105</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>759</v>
+        <v>89</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25144,16 +25161,16 @@
         <v>78</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -25179,13 +25196,13 @@
         <v>70</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>764</v>
+        <v>70</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>407</v>
+        <v>70</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>70</v>
@@ -25212,7 +25229,7 @@
         <v>77</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>89</v>
+        <v>766</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>90</v>
@@ -25220,10 +25237,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -25246,16 +25263,16 @@
         <v>78</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
@@ -25281,13 +25298,13 @@
         <v>70</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>70</v>
+        <v>771</v>
       </c>
       <c r="Z218" t="s" s="2">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="AA218" t="s" s="2">
         <v>70</v>
@@ -25305,7 +25322,7 @@
         <v>70</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>71</v>
@@ -25322,10 +25339,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25348,16 +25365,16 @@
         <v>78</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -25407,7 +25424,7 @@
         <v>70</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>71</v>
@@ -25424,10 +25441,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25438,7 +25455,7 @@
         <v>71</v>
       </c>
       <c r="G220" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H220" t="s" s="2">
         <v>70</v>
@@ -25447,23 +25464,21 @@
         <v>70</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>777</v>
+        <v>92</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="O220" t="s" s="2">
         <v>781</v>
       </c>
+      <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
         <v>70</v>
       </c>
@@ -25511,13 +25526,13 @@
         <v>70</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH220" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI220" t="s" s="2">
         <v>89</v>
@@ -25528,10 +25543,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25542,7 +25557,7 @@
         <v>71</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H221" t="s" s="2">
         <v>70</v>
@@ -25554,16 +25569,20 @@
         <v>70</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>92</v>
+        <v>784</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>93</v>
+        <v>785</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="N221" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="O221" t="s" s="2">
+        <v>788</v>
+      </c>
       <c r="P221" t="s" s="2">
         <v>70</v>
       </c>
@@ -25611,38 +25630,38 @@
         <v>70</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>95</v>
+        <v>783</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH221" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>70</v>
@@ -25654,17 +25673,15 @@
         <v>70</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N222" s="2"/>
       <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
         <v>70</v>
@@ -25701,52 +25718,50 @@
         <v>70</v>
       </c>
       <c r="AB222" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC222" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD222" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="C223" t="s" s="2">
-        <v>785</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>70</v>
@@ -25758,15 +25773,17 @@
         <v>70</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>786</v>
+        <v>98</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="N223" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O223" s="2"/>
       <c r="P223" t="s" s="2">
         <v>70</v>
@@ -25803,16 +25820,16 @@
         <v>70</v>
       </c>
       <c r="AB223" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC223" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD223" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>105</v>
@@ -25832,13 +25849,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>70</v>
@@ -25860,13 +25877,13 @@
         <v>70</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="L224" t="s" s="2">
         <v>181</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -25934,13 +25951,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>70</v>
@@ -25962,13 +25979,13 @@
         <v>70</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="L225" t="s" s="2">
         <v>181</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -26036,46 +26053,44 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="C226" s="2"/>
+        <v>790</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>800</v>
+      </c>
       <c r="D226" t="s" s="2">
-        <v>797</v>
+        <v>70</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G226" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H226" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I226" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>98</v>
+        <v>801</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>798</v>
+        <v>181</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O226" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
         <v>70</v>
       </c>
@@ -26123,7 +26138,7 @@
         <v>70</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>800</v>
+        <v>105</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>71</v>
@@ -26140,45 +26155,45 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
-        <v>70</v>
+        <v>804</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I227" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>804</v>
+        <v>101</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>805</v>
+        <v>245</v>
       </c>
       <c r="P227" t="s" s="2">
         <v>70</v>
@@ -26203,11 +26218,13 @@
         <v>70</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y227" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z227" t="s" s="2">
-        <v>806</v>
+        <v>70</v>
       </c>
       <c r="AA227" t="s" s="2">
         <v>70</v>
@@ -26225,27 +26242,27 @@
         <v>70</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -26268,7 +26285,7 @@
         <v>70</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>808</v>
+        <v>265</v>
       </c>
       <c r="L228" t="s" s="2">
         <v>809</v>
@@ -26305,13 +26322,11 @@
         <v>70</v>
       </c>
       <c r="X228" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y228" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y228" s="2"/>
       <c r="Z228" t="s" s="2">
-        <v>70</v>
+        <v>813</v>
       </c>
       <c r="AA228" t="s" s="2">
         <v>70</v>
@@ -26329,7 +26344,7 @@
         <v>70</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>71</v>
@@ -26346,10 +26361,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26360,7 +26375,7 @@
         <v>71</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>70</v>
@@ -26372,17 +26387,19 @@
         <v>70</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>527</v>
+        <v>815</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>528</v>
+        <v>816</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N229" s="2"/>
+        <v>817</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>818</v>
+      </c>
       <c r="O229" t="s" s="2">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="P229" t="s" s="2">
         <v>70</v>
@@ -26431,27 +26448,27 @@
         <v>70</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI229" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>815</v>
+        <v>90</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26462,7 +26479,7 @@
         <v>71</v>
       </c>
       <c r="G230" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H230" t="s" s="2">
         <v>70</v>
@@ -26474,16 +26491,18 @@
         <v>70</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>92</v>
+        <v>527</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>93</v>
+        <v>528</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>94</v>
+        <v>529</v>
       </c>
       <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
+      <c r="O230" t="s" s="2">
+        <v>821</v>
+      </c>
       <c r="P230" t="s" s="2">
         <v>70</v>
       </c>
@@ -26531,27 +26550,27 @@
         <v>70</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>95</v>
+        <v>820</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH230" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>70</v>
+        <v>822</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -26559,10 +26578,10 @@
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
-        <v>536</v>
+        <v>71</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H231" t="s" s="2">
         <v>70</v>
@@ -26574,13 +26593,13 @@
         <v>70</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -26619,52 +26638,50 @@
         <v>70</v>
       </c>
       <c r="AB231" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD231" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="C232" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" t="s" s="2">
-        <v>71</v>
+        <v>536</v>
       </c>
       <c r="G232" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H232" t="s" s="2">
         <v>70</v>
@@ -26676,17 +26693,15 @@
         <v>70</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>539</v>
+        <v>98</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>540</v>
+        <v>181</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N232" s="2"/>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
         <v>70</v>
@@ -26723,16 +26738,16 @@
         <v>70</v>
       </c>
       <c r="AB232" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC232" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD232" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>105</v>
@@ -26752,20 +26767,20 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D233" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>77</v>
@@ -26780,15 +26795,17 @@
         <v>70</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>181</v>
+        <v>540</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N233" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O233" s="2"/>
       <c r="P233" t="s" s="2">
         <v>70</v>
@@ -26854,20 +26871,20 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D234" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>77</v>
@@ -26882,13 +26899,13 @@
         <v>70</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L234" t="s" s="2">
         <v>181</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -26956,20 +26973,20 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D235" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G235" t="s" s="2">
         <v>77</v>
@@ -26984,13 +27001,13 @@
         <v>70</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L235" t="s" s="2">
         <v>181</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -27058,12 +27075,14 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="C236" s="2"/>
+        <v>824</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="D236" t="s" s="2">
         <v>70</v>
       </c>
@@ -27081,20 +27100,18 @@
         <v>70</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>158</v>
+        <v>551</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>554</v>
+        <v>181</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="N236" s="2"/>
       <c r="O236" s="2"/>
       <c r="P236" t="s" s="2">
         <v>70</v>
@@ -27119,13 +27136,13 @@
         <v>70</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>556</v>
+        <v>70</v>
       </c>
       <c r="Z236" t="s" s="2">
-        <v>557</v>
+        <v>70</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>70</v>
@@ -27143,27 +27160,27 @@
         <v>70</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>558</v>
+        <v>105</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH236" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>559</v>
+        <v>89</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27186,20 +27203,18 @@
         <v>78</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
         <v>70</v>
       </c>
@@ -27223,13 +27238,13 @@
         <v>70</v>
       </c>
       <c r="X237" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>70</v>
+        <v>556</v>
       </c>
       <c r="Z237" t="s" s="2">
-        <v>70</v>
+        <v>557</v>
       </c>
       <c r="AA237" t="s" s="2">
         <v>70</v>
@@ -27247,7 +27262,7 @@
         <v>70</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>71</v>
@@ -27256,7 +27271,7 @@
         <v>77</v>
       </c>
       <c r="AI237" t="s" s="2">
-        <v>89</v>
+        <v>559</v>
       </c>
       <c r="AJ237" t="s" s="2">
         <v>90</v>
@@ -27264,10 +27279,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27275,7 +27290,7 @@
       </c>
       <c r="E238" s="2"/>
       <c r="F238" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G238" t="s" s="2">
         <v>77</v>
@@ -27284,25 +27299,25 @@
         <v>70</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J238" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="O238" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>70</v>
@@ -27327,13 +27342,13 @@
         <v>70</v>
       </c>
       <c r="X238" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>571</v>
+        <v>70</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>572</v>
+        <v>70</v>
       </c>
       <c r="AA238" t="s" s="2">
         <v>70</v>
@@ -27351,7 +27366,7 @@
         <v>70</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>71</v>
@@ -27368,10 +27383,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27388,24 +27403,26 @@
         <v>70</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J239" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>575</v>
+        <v>158</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O239" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="O239" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="P239" t="s" s="2">
         <v>70</v>
       </c>
@@ -27429,13 +27446,13 @@
         <v>70</v>
       </c>
       <c r="X239" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y239" t="s" s="2">
-        <v>70</v>
+        <v>571</v>
       </c>
       <c r="Z239" t="s" s="2">
-        <v>70</v>
+        <v>572</v>
       </c>
       <c r="AA239" t="s" s="2">
         <v>70</v>
@@ -27453,7 +27470,7 @@
         <v>70</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>71</v>
@@ -27470,10 +27487,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27496,16 +27513,16 @@
         <v>78</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>287</v>
+        <v>575</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
@@ -27555,7 +27572,7 @@
         <v>70</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>71</v>
@@ -27567,15 +27584,15 @@
         <v>89</v>
       </c>
       <c r="AJ240" t="s" s="2">
-        <v>292</v>
+        <v>90</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27595,23 +27612,21 @@
         <v>70</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>586</v>
+        <v>287</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>828</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="O241" s="2"/>
       <c r="P241" t="s" s="2">
         <v>70</v>
       </c>
@@ -27659,7 +27674,7 @@
         <v>70</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>827</v>
+        <v>584</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>71</v>
@@ -27671,15 +27686,15 @@
         <v>89</v>
       </c>
       <c r="AJ241" t="s" s="2">
-        <v>90</v>
+        <v>292</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27690,7 +27705,7 @@
         <v>71</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>70</v>
@@ -27702,19 +27717,19 @@
         <v>70</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>830</v>
+        <v>586</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>831</v>
+        <v>587</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>832</v>
+        <v>588</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>750</v>
+        <v>589</v>
       </c>
       <c r="O242" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="P242" t="s" s="2">
         <v>70</v>
@@ -27763,18 +27778,122 @@
         <v>70</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH242" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI242" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ242" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="C243" s="2"/>
+      <c r="D243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E243" s="2"/>
+      <c r="F243" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="O243" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="P243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q243" s="2"/>
+      <c r="R243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="AG243" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI243" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ243" t="s" s="2">
         <v>299</v>
       </c>
     </row>
